--- a/tocheck/FloradePanama_dec4_2025_nombreserrores.xlsx
+++ b/tocheck/FloradePanama_dec4_2025_nombreserrores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,32 +419,108 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Verbesina gigantea</t>
+          <t>Lonchocarpus minimiflorus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Passiflora foetida</t>
+          <t>Calopogonium galactioides</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Passiflora foetida</t>
+          <t>Calopogonium galactioides</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>verbgi</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>verbgi</t>
+          <t>loncmi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>verbgi</t>
+          <t>loncmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Morisonia paradoxa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Combretum spinosum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Combretum spinosum</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ste2pa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ste2pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Plinia gentryi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hiraea faginea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hiraea faginea</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>plinge</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>plinge</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Verbesina fuscasiccans</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Miconia multiplinervia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Miconia multiplinervia</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>verbfu</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>verbfu</t>
         </is>
       </c>
     </row>
